--- a/testdata/测试用例.xlsx
+++ b/testdata/测试用例.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16590" windowHeight="6915" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="自定义关键字" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="搜狗" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="百度" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="自定义关键字" sheetId="2" r:id="rId2"/>
+    <sheet name="搜狗" sheetId="3" r:id="rId3"/>
+    <sheet name="百度" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>www.126.com</t>
   </si>
@@ -106,7 +106,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2020年4月16日15时9分13秒</t>
+    <t>2020年4月16日15时12分22秒</t>
   </si>
   <si>
     <t>pass</t>
@@ -118,9 +118,6 @@
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>2020年4月16日15时9分14秒</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -130,7 +127,10 @@
     <t>SearchPage.InputBox</t>
   </si>
   <si>
-    <t>光荣之路自动化测试培训</t>
+    <t>特朗普</t>
+  </si>
+  <si>
+    <t>2020年4月16日15时12分23秒</t>
   </si>
   <si>
     <t>click</t>
@@ -145,62 +145,10 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2020年4月16日15时9分19秒</t>
+    <t>2020年4月16日15时12分28秒</t>
   </si>
   <si>
     <t>assert_word</t>
-  </si>
-  <si>
-    <t>www.goaryroad.cn</t>
-  </si>
-  <si>
-    <t>2020年4月16日15时9分20秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:/mix_driven_project/Action/WebElementAction.py", line 110, in execute_test_case
-    eval(command)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:/mix_driven_project/Action/WebElementAction.py", line 54, in assert_word
-    assert word in driver.page_source
-AssertionError
-</t>
-  </si>
-  <si>
-    <t>D:\mix_driven_project\capture_pics\2020年4月16日\15时9分19秒.png</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>2020年4月16日15时9分23秒</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
-    <t>光荣之路自动化测试</t>
-  </si>
-  <si>
-    <t>stb</t>
-  </si>
-  <si>
-    <t>www.gloryroad.cn</t>
-  </si>
-  <si>
-    <t>2020年4月16日15时12分22秒</t>
-  </si>
-  <si>
-    <t>2020年4月16日15时12分23秒</t>
-  </si>
-  <si>
-    <t>2020年4月16日15时12分28秒</t>
-  </si>
-  <si>
-    <t>D:\mix_driven_project\capture_pics\2020年4月16日\15时12分28秒.png</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
@@ -213,7 +161,25 @@
 </t>
   </si>
   <si>
+    <t>D:\mix_driven_project\capture_pics\2020年4月16日\15时12分28秒.png</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
     <t>2020年4月16日15时12分32秒</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>博客园</t>
+  </si>
+  <si>
+    <t>stb</t>
   </si>
 </sst>
 </file>
@@ -221,167 +187,175 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -394,25 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,157 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,17 +562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,32 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +621,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -685,156 +644,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -888,6 +863,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1147,25 +1127,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col width="15.25" customWidth="1" min="1" max="1"/>
-    <col width="14.375" customWidth="1" min="2" max="2"/>
-    <col width="14.75" customWidth="1" min="3" max="3"/>
-    <col width="13.5" customWidth="1" min="4" max="4"/>
-    <col width="27.375" customWidth="1" min="5" max="5"/>
-    <col width="17.25" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1189,7 +1166,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1208,8 +1185,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1222,8 +1199,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1238,30 +1215,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col width="16.5" customWidth="1" min="2" max="2"/>
-    <col width="10.875" customWidth="1" min="4" max="4"/>
-    <col width="45.125" customWidth="1" min="5" max="5"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" s="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1290,8 +1265,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1303,32 +1278,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="13.5" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="23.875" customWidth="1" min="4" max="4"/>
-    <col width="21.5" customWidth="1" min="5" max="5"/>
-    <col width="27.375" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" s="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,8 +1330,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1368,14 +1341,14 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1385,37 +1358,37 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1428,61 +1401,61 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
+      <c r="E7" s="2">
+        <v>1222</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -1490,29 +1463,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://www.baidu.com" display="http://www.baidu.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" tooltip="http://www.goaryroad.cn" display="www.goaryroad.cn" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E7" r:id="rId2" display="1222" tooltip="http://www.goaryroad.cn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" s="1">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1541,28 +1512,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>111</v>
-      </c>
-      <c r="H2" t="n">
-        <v>111</v>
-      </c>
-      <c r="I2" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1571,44 +1533,26 @@
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="n">
-        <v>111</v>
-      </c>
-      <c r="H3" t="n">
-        <v>111</v>
-      </c>
-      <c r="I3" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="n">
-        <v>111</v>
-      </c>
-      <c r="H4" t="n">
-        <v>111</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1618,51 +1562,34 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="n">
-        <v>111</v>
-      </c>
-      <c r="H5" t="n">
-        <v>111</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="n">
-        <v>111</v>
-      </c>
-      <c r="H6" t="n">
-        <v>111</v>
-      </c>
-      <c r="I6" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" display="http://www.baidu.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" display="www.gloryroad.cn" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="E6" r:id="rId2" display="博客园"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>